--- a/Assets/Excel/RetireScore.xlsx
+++ b/Assets/Excel/RetireScore.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16590" windowHeight="11920"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="RetireScore" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>//dontCare</t>
   </si>
@@ -61,6 +61,9 @@
     <t>Normal Education. Not bad!</t>
   </si>
   <si>
+    <t>expEdu</t>
+  </si>
+  <si>
     <t>High Education. So clean!</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>Poor Career. Woody taste!</t>
   </si>
   <si>
+    <t>expCareer</t>
+  </si>
+  <si>
     <t>Normal Career. Not bad!</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
   </si>
   <si>
     <t>Single?</t>
+  </si>
+  <si>
+    <t>MarriageAge</t>
   </si>
   <si>
     <t>Quick Marry.</t>
@@ -101,14 +110,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,48 +568,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -617,108 +622,102 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1072,7 +1071,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1088,7 +1087,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1111,7 +1110,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1156,7 +1155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -1173,6 +1172,9 @@
         <v>-300</v>
       </c>
       <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1187,7 +1189,7 @@
         <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>-300</v>
@@ -1196,24 +1198,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>-600</v>
       </c>
       <c r="F7">
         <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1221,13 +1226,13 @@
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>-600</v>
@@ -1241,13 +1246,13 @@
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>-600</v>
@@ -1256,24 +1261,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>3001</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>-1</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>-1000</v>
       </c>
       <c r="F10">
         <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1281,13 +1289,13 @@
         <v>3002</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -1301,13 +1309,13 @@
         <v>3003</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>200</v>
@@ -1321,13 +1329,13 @@
         <v>3004</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>-200</v>

--- a/Assets/Excel/RetireScore.xlsx
+++ b/Assets/Excel/RetireScore.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="23680" windowHeight="8330"/>
   </bookViews>
   <sheets>
     <sheet name="RetireScore" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>//dontCare</t>
   </si>
@@ -52,34 +52,34 @@
     <t>Edu</t>
   </si>
   <si>
-    <t>Poor Education. Dirty!</t>
+    <t>Poor Education.</t>
   </si>
   <si>
     <t>score=init+slope*key</t>
   </si>
   <si>
-    <t>Normal Education. Not bad!</t>
+    <t>Normal Education.</t>
   </si>
   <si>
     <t>expEdu</t>
   </si>
   <si>
-    <t>High Education. So clean!</t>
+    <t>High Education.</t>
   </si>
   <si>
     <t>Career</t>
   </si>
   <si>
-    <t>Poor Career. Woody taste!</t>
+    <t>Poor Career.</t>
   </si>
   <si>
     <t>expCareer</t>
   </si>
   <si>
-    <t>Normal Career. Not bad!</t>
-  </si>
-  <si>
-    <t>Nice Career. Smooth taste!</t>
+    <t>Normal Career.</t>
+  </si>
+  <si>
+    <t>Nice Career.</t>
   </si>
   <si>
     <t>Marriage</t>
@@ -97,7 +97,19 @@
     <t>Married.</t>
   </si>
   <si>
-    <t>Too Late to Marry!</t>
+    <t>Late Marry!</t>
+  </si>
+  <si>
+    <t>Retire</t>
+  </si>
+  <si>
+    <t>Retire on time!</t>
+  </si>
+  <si>
+    <t>RetireAge</t>
+  </si>
+  <si>
+    <t>Late Retire!</t>
   </si>
 </sst>
 </file>
@@ -1068,16 +1080,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="21.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="26.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
     <col min="7" max="7" width="23.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1342,6 +1354,49 @@
       </c>
       <c r="F13">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>4001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>3500</v>
+      </c>
+      <c r="F14">
+        <v>-50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>4002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>3250</v>
+      </c>
+      <c r="F15">
+        <v>-50</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/RetireScore.xlsx
+++ b/Assets/Excel/RetireScore.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23680" windowHeight="8330"/>
+    <workbookView windowWidth="17400" windowHeight="8330"/>
   </bookViews>
   <sheets>
     <sheet name="RetireScore" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>//dontCare</t>
   </si>
   <si>
+    <t>//dontChange</t>
+  </si>
+  <si>
+    <t>//Form it</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -35,6 +41,9 @@
   </si>
   <si>
     <t>slope</t>
+  </si>
+  <si>
+    <t>keyPointScore</t>
   </si>
   <si>
     <t>remark</t>
@@ -1080,323 +1089,385 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="21.5454545454545" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="7" max="7" width="23.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="13.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="15.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="23.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>-300</v>
+        <f>G4-C4*F4</f>
+        <v>-1200</v>
       </c>
       <c r="F4">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>-1200</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>-300</v>
+        <f>G5-C5*F5</f>
+        <v>-1000</v>
       </c>
       <c r="F5">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6">
-        <v>-300</v>
+        <f>G6-C6*F6</f>
+        <v>-1800</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2001</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>-600</v>
+        <f>G7-C7*F7</f>
+        <v>-900</v>
       </c>
       <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <v>-900</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>2002</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <f>G8-C8*F8</f>
+        <v>-1050</v>
+      </c>
+      <c r="F8">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>-600</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
+      <c r="G8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>-600</v>
+        <f>G9-C9*F9</f>
+        <v>-1775</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>1225</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>3001</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>-1</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>-1000</v>
+        <f>G10-C10*F10</f>
+        <v>-1500</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
-        <v>24</v>
+      <c r="G10">
+        <v>-1500</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>3002</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>500</v>
+        <f>G11-C11*F11</f>
+        <v>1700</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>-50</v>
+      </c>
+      <c r="G11">
+        <v>1700</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>3003</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E12">
+        <f>G12-C12*F12</f>
         <v>200</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>3004</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E13">
-        <v>-200</v>
+        <f>G13-C13*F13</f>
+        <v>1900</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>-50</v>
+      </c>
+      <c r="G13">
+        <v>-100</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>4001</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E14">
-        <v>3500</v>
+        <f>G14-C14*F14</f>
+        <v>3600</v>
       </c>
       <c r="F14">
         <v>-50</v>
       </c>
-      <c r="G14" t="s">
-        <v>30</v>
+      <c r="G14">
+        <v>600</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>4002</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>3250</v>
+        <f>G15-C15*F15</f>
+        <v>3050</v>
       </c>
       <c r="F15">
         <v>-50</v>
+      </c>
+      <c r="G15">
+        <v>-200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/RetireScore.xlsx
+++ b/Assets/Excel/RetireScore.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17400" windowHeight="8330"/>
+    <workbookView windowWidth="19920" windowHeight="10570"/>
   </bookViews>
   <sheets>
     <sheet name="RetireScore" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>//dontCare</t>
   </si>
@@ -74,6 +74,27 @@
   </si>
   <si>
     <t>High Education.</t>
+  </si>
+  <si>
+    <t>EduStart</t>
+  </si>
+  <si>
+    <t>Early School!</t>
+  </si>
+  <si>
+    <t>EduStartAge</t>
+  </si>
+  <si>
+    <t>Late for School!</t>
+  </si>
+  <si>
+    <t>DelayGraduate</t>
+  </si>
+  <si>
+    <t>Delay Graduate?</t>
+  </si>
+  <si>
+    <t>YearDelay</t>
   </si>
   <si>
     <t>Career</t>
@@ -1089,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1181,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="E4">
-        <f>G4-C4*F4</f>
+        <f t="shared" ref="E4:E10" si="0">G4-C4*F4</f>
         <v>-1200</v>
       </c>
       <c r="F4">
@@ -1208,7 +1229,7 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <f>G5-C5*F5</f>
+        <f t="shared" si="0"/>
         <v>-1000</v>
       </c>
       <c r="F5">
@@ -1235,7 +1256,7 @@
         <v>19</v>
       </c>
       <c r="E6">
-        <f>G6-C6*F6</f>
+        <f t="shared" si="0"/>
         <v>-1800</v>
       </c>
       <c r="F6">
@@ -1247,7 +1268,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>2001</v>
+        <v>1011</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1259,14 +1280,14 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <f>G7-C7*F7</f>
-        <v>-900</v>
+        <f t="shared" si="0"/>
+        <v>400</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="G7">
-        <v>-900</v>
+        <v>400</v>
       </c>
       <c r="H7" t="s">
         <v>22</v>
@@ -1274,23 +1295,20 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>2002</v>
+        <v>1012</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <f>G8-C8*F8</f>
-        <v>-1050</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1298,61 +1316,61 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>2003</v>
+        <v>1013</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <f>G9-C9*F9</f>
-        <v>-1775</v>
+        <f t="shared" si="0"/>
+        <v>260</v>
       </c>
       <c r="F9">
-        <v>40</v>
+        <v>-30</v>
       </c>
       <c r="G9">
-        <v>1225</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>3001</v>
+        <v>1021</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="C10">
-        <v>-1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>-100</v>
+      </c>
+      <c r="G10">
+        <v>-100</v>
+      </c>
+      <c r="H10" t="s">
         <v>26</v>
       </c>
-      <c r="E10">
-        <f>G10-C10*F10</f>
-        <v>-1500</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>-1500</v>
-      </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>2001</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>3002</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1361,112 +1379,214 @@
         <v>28</v>
       </c>
       <c r="E11">
-        <f>G11-C11*F11</f>
-        <v>1700</v>
+        <f t="shared" ref="E11:E19" si="1">G11-C11*F11</f>
+        <v>-900</v>
       </c>
       <c r="F11">
-        <v>-50</v>
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>1700</v>
+        <v>-900</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>3003</v>
+        <v>2002</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12">
-        <f>G12-C12*F12</f>
-        <v>200</v>
+        <f t="shared" si="1"/>
+        <v>-1050</v>
       </c>
       <c r="F12">
+        <v>35</v>
+      </c>
+      <c r="G12">
         <v>0</v>
-      </c>
-      <c r="G12">
-        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>3004</v>
+        <v>2003</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>-1775</v>
+      </c>
+      <c r="F13">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13">
-        <f>G13-C13*F13</f>
-        <v>1900</v>
-      </c>
-      <c r="F13">
-        <v>-50</v>
-      </c>
       <c r="G13">
-        <v>-100</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>4001</v>
+        <v>3001</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>-1</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14">
-        <f>G14-C14*F14</f>
-        <v>3600</v>
+        <f t="shared" si="1"/>
+        <v>-1500</v>
       </c>
       <c r="F14">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>600</v>
+        <v>-1500</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>4002</v>
+        <v>3002</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15">
-        <f>G15-C15*F15</f>
-        <v>3050</v>
+        <f t="shared" si="1"/>
+        <v>1700</v>
       </c>
       <c r="F15">
         <v>-50</v>
       </c>
       <c r="G15">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3003</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>3004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1900</v>
+      </c>
+      <c r="F17">
+        <v>-50</v>
+      </c>
+      <c r="G17">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>4001</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+      <c r="F18">
+        <v>-50</v>
+      </c>
+      <c r="G18">
+        <v>600</v>
+      </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>4002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>3050</v>
+      </c>
+      <c r="F19">
+        <v>-50</v>
+      </c>
+      <c r="G19">
         <v>-200</v>
       </c>
     </row>

--- a/Assets/Excel/RetireScore.xlsx
+++ b/Assets/Excel/RetireScore.xlsx
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1353,10 +1353,10 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="F10">
-        <v>-100</v>
+        <v>-50</v>
       </c>
       <c r="G10">
         <v>-100</v>

--- a/Assets/Excel/RetireScore.xlsx
+++ b/Assets/Excel/RetireScore.xlsx
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1407,10 +1407,10 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>-1050</v>
+        <v>-900</v>
       </c>
       <c r="F12">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1424,20 +1424,20 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>-1775</v>
+        <v>-1250</v>
       </c>
       <c r="F13">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G13">
-        <v>1225</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="14" spans="1:8">

--- a/Assets/Excel/RetireScore.xlsx
+++ b/Assets/Excel/RetireScore.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19920" windowHeight="10570"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="RetireScore" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>//dontCare</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>Late Retire!</t>
+  </si>
+  <si>
+    <t>GapYear</t>
+  </si>
+  <si>
+    <t>Gap {0} Year?</t>
   </si>
 </sst>
 </file>
@@ -1110,10 +1116,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1329,10 +1335,10 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>860</v>
       </c>
       <c r="F9">
-        <v>-30</v>
+        <v>-80</v>
       </c>
       <c r="G9">
         <v>-100</v>
@@ -1353,10 +1359,10 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="G10">
         <v>-100</v>
@@ -1379,7 +1385,7 @@
         <v>28</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:E19" si="1">G11-C11*F11</f>
+        <f t="shared" ref="E11:E20" si="1">G11-C11*F11</f>
         <v>-900</v>
       </c>
       <c r="F11">
@@ -1499,7 +1505,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
@@ -1523,17 +1529,17 @@
         <v>32</v>
       </c>
       <c r="C17">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>1900</v>
+        <v>3400</v>
       </c>
       <c r="F17">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="G17">
         <v>-100</v>
@@ -1581,13 +1587,37 @@
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>3050</v>
+        <v>5000</v>
       </c>
       <c r="F19">
-        <v>-50</v>
+        <v>-80</v>
       </c>
       <c r="G19">
         <v>-200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>5001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>-150</v>
+      </c>
+      <c r="G20">
+        <v>-100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/RetireScore.xlsx
+++ b/Assets/Excel/RetireScore.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="19350" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="RetireScore" sheetId="1" r:id="rId1"/>
@@ -1119,7 +1119,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1604,14 +1604,14 @@
         <v>42</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>43</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F20">
         <v>-150</v>
